--- a/biology/Médecine/Christoph_Girtanner/Christoph_Girtanner.xlsx
+++ b/biology/Médecine/Christoph_Girtanner/Christoph_Girtanner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christoph Girtanner, né à Saint-Gall le 7 décembre 1760 et mort le 17 mai 1800 à Göttingen, est un médecin, physicien, chimiste et écrivain suisse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fils du banquier Hieronymus Girtanner, et de sa femme, Barbara Felicitas, il étudie à Saint-Gall, Lausanne, Paris, Édimbourg et Londres et obtient son doctorat en 1782 à l'Université de Göttingen. 
-Après plusieurs années au Royaume-Uni, il est élu en 1790 à la Royal Society of Edinburgh[1]. 
-On lui doit de nombreux ouvrages de politique, de médecine et d'histoire naturelle dont[2] :
+Après plusieurs années au Royaume-Uni, il est élu en 1790 à la Royal Society of Edinburgh. 
+On lui doit de nombreux ouvrages de politique, de médecine et d'histoire naturelle dont :
 Nouvelle nomenclature chimique, Berlin, 1791
 Éléments de chimie antiphlogistique, 1792
 Nouvelles historiques et considérations politiques sur la Révolution française, 13 vol, 1791-1797
